--- a/Zeiterfassung.xlsx
+++ b/Zeiterfassung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\awrDATEN\lena\DATA SCIENCE INSTITUTE\Projekt_Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{98EE1558-E02A-4674-8982-4D21DC3CBBDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A6F757-F303-4C01-BC64-D6E245C33C26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8743" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8743" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Maerz" sheetId="1" r:id="rId1"/>
@@ -591,8 +591,8 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35:D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1032,8 +1032,8 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView topLeftCell="A31" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35:D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1470,8 +1470,8 @@
   <sheetPr codeName="Tabelle3"/>
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -2002,8 +2002,8 @@
   <sheetPr codeName="Tabelle4"/>
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35:D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -2478,8 +2478,8 @@
   <sheetPr codeName="Tabelle5"/>
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50:D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -2965,8 +2965,8 @@
   <sheetPr codeName="Tabelle6"/>
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35:D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -3400,7 +3400,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4A3E861-39D2-461A-A181-1942B8007CC6}">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
       <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
